--- a/app/experiments/exp4/results/result.xlsx
+++ b/app/experiments/exp4/results/result.xlsx
@@ -688,7 +688,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BO67"/>
+  <dimension ref="A1:BR70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5847,6 +5847,27 @@
       <c r="BN67" s="25" t="n"/>
       <c r="BO67" s="25" t="n"/>
     </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>env/Beijing/IVDC-03-06/2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>NC_046964.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>NC_014470.1</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
